--- a/MoviesList.xlsx
+++ b/MoviesList.xlsx
@@ -27,23 +27,23 @@
     <t>name</t>
   </si>
   <si>
-    <t>https://aa.opstream6.com/20220309/2913_4a639dc2/1000k/hls/mixed.m3u8</t>
+    <t>https://1080.opstream4.com/20220309/1217_883067c1/1000k/hls/mixed.m3u8</t>
   </si>
   <si>
-    <t>https://hd.hdbophim.com/20220225/158_4072dce1/1000k/hls/mixed.m3u8</t>
+    <t>Táo Quậy</t>
   </si>
   <si>
-    <t>Song Song</t>
+    <t>https://hd.hdbophim.com/20221116/26035_8ae84283/1163617/hls/mixed.m3u8</t>
   </si>
   <si>
-    <t>Sứ Mệnh Trái Tim</t>
+    <t>Thang Máy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -494,7 +503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -537,11 +546,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -575,6 +586,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -864,7 +876,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,22 +894,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/MoviesList.xlsx
+++ b/MoviesList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>url</t>
   </si>
@@ -27,16 +27,34 @@
     <t>name</t>
   </si>
   <si>
-    <t>https://1080.opstream4.com/20220309/1217_883067c1/1000k/hls/mixed.m3u8</t>
-  </si>
-  <si>
-    <t>Táo Quậy</t>
-  </si>
-  <si>
-    <t>https://hd.hdbophim.com/20221116/26035_8ae84283/1163617/hls/mixed.m3u8</t>
-  </si>
-  <si>
-    <t>Thang Máy</t>
+    <t>Vầng Trăng Máu (Killers of the Flower Moon)</t>
+  </si>
+  <si>
+    <t>https://s3.phim1280.tv/20240531/uwgSpqxG/2000kb/hls/index.m3u8</t>
+  </si>
+  <si>
+    <t>Quý Cô Thích Chiều (Lady Libertine)</t>
+  </si>
+  <si>
+    <t>https://vip.opstream17.com/20240530/9293_d85ee323/3000k/hls/mixed.m3u8</t>
+  </si>
+  <si>
+    <t>Tình yêu, bên kia bức tường (Love, Divided)</t>
+  </si>
+  <si>
+    <t>https://vip.opstream17.com/20240530/9425_202c891d/3000k/hls/mixed.m3u8</t>
+  </si>
+  <si>
+    <t>Ác Nữ (Lost in Perfection)</t>
+  </si>
+  <si>
+    <t>https://vip.opstream11.com/20240211/51446_7dcc38d0/3000k/hls/mixed.m3u8</t>
+  </si>
+  <si>
+    <t>Tiền và tình yêu (Money and Love)</t>
+  </si>
+  <si>
+    <t>https://vip.opstream15.com/20220306/1009_3c3a176a/1000k/hls/mixed.m3u8</t>
   </si>
 </sst>
 </file>
@@ -548,9 +566,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -873,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,28 +916,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>